--- a/tabular/eve/epv-side-data.xlsx
+++ b/tabular/eve/epv-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175F020-28A8-E041-A76E-543F546FA849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BBDBE-609D-BA46-BEEA-253D5A1DCD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17560" yWindow="2220" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7031,7 +7031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
       <selection activeCell="E413" sqref="E413"/>
     </sheetView>
   </sheetViews>
